--- a/Sep 2020 to Oct 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Sep 2020 to Oct 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B3A51-39DF-4B72-A514-9E37C13CFA62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D6FDD3-8217-4BFC-992A-8902908F7912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jul 2020 to Aug 2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Sep 2020 to Oct 2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Jul 2020 to Aug 2020'!$A$1:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sep 2020 to Oct 2020'!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -979,7 +979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
